--- a/赛事记录表.xlsx
+++ b/赛事记录表.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>序号</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>全马</t>
+  </si>
+  <si>
+    <t>2025.12.31</t>
+  </si>
+  <si>
+    <t>范大哥、十四爷</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1404,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1729,7 +1735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" ht="17.55" spans="1:7">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1796,12 +1802,33 @@
         <v>34</v>
       </c>
     </row>
+    <row r="19" customFormat="1" spans="1:7">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4">
+        <v>142</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="21" spans="1:7">
       <c r="C21" s="1"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G17" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A1:G17">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G18" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A1:G18">
       <sortCondition ref="A2"/>
     </sortState>
     <extLst/>
